--- a/ONCHO/Entomological survey Survey/Nigeria/2024/Adamawa/ng_oncho_2026_1_community_adw.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/Adamawa/ng_oncho_2026_1_community_adw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\Adamawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590D8B24-BFFF-463A-8F2F-6C15E8E5AFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F445B2C3-1C61-4A9B-A0F9-68AD048266F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="151">
   <si>
     <t>type</t>
   </si>
@@ -197,159 +197,6 @@
   </si>
   <si>
     <t>summary</t>
-  </si>
-  <si>
-    <t>BAUCHI</t>
-  </si>
-  <si>
-    <t>ALKALERI</t>
-  </si>
-  <si>
-    <t>BOGORO</t>
-  </si>
-  <si>
-    <t>DARAZO</t>
-  </si>
-  <si>
-    <t>DASS</t>
-  </si>
-  <si>
-    <t>GAMAWA</t>
-  </si>
-  <si>
-    <t>GANJUWA</t>
-  </si>
-  <si>
-    <t>KIRFI</t>
-  </si>
-  <si>
-    <t>MISAU</t>
-  </si>
-  <si>
-    <t>NINGI</t>
-  </si>
-  <si>
-    <t>SHIRA</t>
-  </si>
-  <si>
-    <t>TORO</t>
-  </si>
-  <si>
-    <t>ZAKI</t>
-  </si>
-  <si>
-    <t>GIADE</t>
-  </si>
-  <si>
-    <t>TAFAWA-BALEWA</t>
-  </si>
-  <si>
-    <t>WARJI</t>
-  </si>
-  <si>
-    <t>BAKUREJI</t>
-  </si>
-  <si>
-    <t>DAGARAU</t>
-  </si>
-  <si>
-    <t>KWALA</t>
-  </si>
-  <si>
-    <t>BIRIM</t>
-  </si>
-  <si>
-    <t>MIRI</t>
-  </si>
-  <si>
-    <t>DOGON KANIA</t>
-  </si>
-  <si>
-    <t>SABON GARI</t>
-  </si>
-  <si>
-    <t>DARRARI</t>
-  </si>
-  <si>
-    <t>LIRINI</t>
-  </si>
-  <si>
-    <t>DADINGA</t>
-  </si>
-  <si>
-    <t>NASARAWA</t>
-  </si>
-  <si>
-    <t>BARA</t>
-  </si>
-  <si>
-    <t>BUNDURU</t>
-  </si>
-  <si>
-    <t>ZINDI/MISAU</t>
-  </si>
-  <si>
-    <t>KAFIN ZAKI</t>
-  </si>
-  <si>
-    <t>RAFIN CHIAWO</t>
-  </si>
-  <si>
-    <t>SAMA</t>
-  </si>
-  <si>
-    <t>UNGUWAR MADAIKI</t>
-  </si>
-  <si>
-    <t>ZIGAU</t>
-  </si>
-  <si>
-    <t>GUMAU</t>
-  </si>
-  <si>
-    <t>LAME</t>
-  </si>
-  <si>
-    <t>RISHI</t>
-  </si>
-  <si>
-    <t>RUHU</t>
-  </si>
-  <si>
-    <t>SANDIGALOU</t>
-  </si>
-  <si>
-    <t>TIKIRZE</t>
-  </si>
-  <si>
-    <t>FAFAN FULANI</t>
-  </si>
-  <si>
-    <t>YELWAN GALAMBI</t>
-  </si>
-  <si>
-    <t>CHINKANI</t>
-  </si>
-  <si>
-    <t>MIYA B</t>
-  </si>
-  <si>
-    <t>KAFIN LEMO</t>
-  </si>
-  <si>
-    <t>BANGIRE</t>
-  </si>
-  <si>
-    <t>KARDAM B</t>
-  </si>
-  <si>
-    <t>DINDIBUS</t>
-  </si>
-  <si>
-    <t>GABANGA A</t>
-  </si>
-  <si>
-    <t>DISINA B</t>
   </si>
   <si>
     <t>r_state</t>
@@ -392,121 +239,256 @@
     <t>lga = ${r_lga}</t>
   </si>
   <si>
-    <t>ng_oncho_2026_1_com_bau</t>
-  </si>
-  <si>
-    <t>(Bauchi) 1. Community Registration Form</t>
-  </si>
-  <si>
-    <t>BAU_ALK_N_001</t>
-  </si>
-  <si>
-    <t>BAU_ALK_N_002</t>
-  </si>
-  <si>
-    <t>BAU_ALK_N_003</t>
-  </si>
-  <si>
-    <t>BAU_BAU_N_004</t>
-  </si>
-  <si>
-    <t>BAU_BAU_N_005</t>
-  </si>
-  <si>
-    <t>BAU_BOG_N_006</t>
-  </si>
-  <si>
-    <t>BAU_DAR_N_007</t>
-  </si>
-  <si>
-    <t>BAU_DAS_N_008</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_009</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_010</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_011</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_012</t>
-  </si>
-  <si>
-    <t>BAU_KIR_N_013</t>
-  </si>
-  <si>
-    <t>BAU_KIR_N_014</t>
-  </si>
-  <si>
-    <t>BAU_MIS_N_015</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_016</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_017</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_018</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_019</t>
-  </si>
-  <si>
-    <t>BAU_SHI_N_020</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_021</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_022</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_023</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_024</t>
-  </si>
-  <si>
-    <t>BAU_ZAK_N_025</t>
-  </si>
-  <si>
-    <t>BAU_ZAK_N_026</t>
-  </si>
-  <si>
-    <t>BAU_KIR_M_027</t>
-  </si>
-  <si>
-    <t>BAU_ALK_M_028</t>
-  </si>
-  <si>
-    <t>BAU_GIA_M_029</t>
-  </si>
-  <si>
-    <t>BAU_GAN_M_030</t>
-  </si>
-  <si>
-    <t>BAU_NIN_M_031</t>
-  </si>
-  <si>
-    <t>BAU_SHI_M_032</t>
-  </si>
-  <si>
-    <t>BAU_TAF_M_033</t>
-  </si>
-  <si>
-    <t>BAU_SHI_M_034</t>
-  </si>
-  <si>
-    <t>BAU_WAR_M_035</t>
-  </si>
-  <si>
-    <t>BAU_SHI_M_036</t>
-  </si>
-  <si>
     <t>site_id</t>
+  </si>
+  <si>
+    <t>ng_oncho_2026_1_community_adw</t>
+  </si>
+  <si>
+    <t>(Adamawa) 1. Community Registration Form</t>
+  </si>
+  <si>
+    <t>ADAMAWA</t>
+  </si>
+  <si>
+    <t>DEMSA</t>
+  </si>
+  <si>
+    <t>FUFORE</t>
+  </si>
+  <si>
+    <t>GOMBI</t>
+  </si>
+  <si>
+    <t>HONG</t>
+  </si>
+  <si>
+    <t>JADA</t>
+  </si>
+  <si>
+    <t>LAMURDE</t>
+  </si>
+  <si>
+    <t>MADAGALI</t>
+  </si>
+  <si>
+    <t>MAIHA</t>
+  </si>
+  <si>
+    <t>MICHIKA</t>
+  </si>
+  <si>
+    <t>MUBI NORTH</t>
+  </si>
+  <si>
+    <t>MUBI SOUTH</t>
+  </si>
+  <si>
+    <t>NUMAN</t>
+  </si>
+  <si>
+    <t>SHELLENG</t>
+  </si>
+  <si>
+    <t>SONG</t>
+  </si>
+  <si>
+    <t>TOUNGO</t>
+  </si>
+  <si>
+    <t>YOLA NORTH</t>
+  </si>
+  <si>
+    <t>DILLI</t>
+  </si>
+  <si>
+    <t>KARLAHI</t>
+  </si>
+  <si>
+    <t>KOCHEL</t>
+  </si>
+  <si>
+    <t>WURO BABBA</t>
+  </si>
+  <si>
+    <t>GUYAKU</t>
+  </si>
+  <si>
+    <t>PUBA</t>
+  </si>
+  <si>
+    <t>ZHEDINYI</t>
+  </si>
+  <si>
+    <t>TISEL</t>
+  </si>
+  <si>
+    <t>BOLLERE</t>
+  </si>
+  <si>
+    <t>DAMAI</t>
+  </si>
+  <si>
+    <t>KWATAMA DAFFA</t>
+  </si>
+  <si>
+    <t>JAMTARI</t>
+  </si>
+  <si>
+    <t>KAPSULE</t>
+  </si>
+  <si>
+    <t>KASSU</t>
+  </si>
+  <si>
+    <t>SINA MALA</t>
+  </si>
+  <si>
+    <t>MUCHALLA</t>
+  </si>
+  <si>
+    <t>WURO HAMMAGU</t>
+  </si>
+  <si>
+    <t>BOKKI</t>
+  </si>
+  <si>
+    <t>DABEWO</t>
+  </si>
+  <si>
+    <t>BA AWO</t>
+  </si>
+  <si>
+    <t>BARANGA</t>
+  </si>
+  <si>
+    <t>GIDANMBIRI</t>
+  </si>
+  <si>
+    <t>GUMTI</t>
+  </si>
+  <si>
+    <t>KOGIN BABA1</t>
+  </si>
+  <si>
+    <t>KOGIN BABA2</t>
+  </si>
+  <si>
+    <t>MAYOBIRIJI</t>
+  </si>
+  <si>
+    <t>NATRIDE</t>
+  </si>
+  <si>
+    <t>TIMBO</t>
+  </si>
+  <si>
+    <t>WURO JATAU</t>
+  </si>
+  <si>
+    <t>YOLA (DOUBELI)</t>
+  </si>
+  <si>
+    <t>ADA_GOM_N_001</t>
+  </si>
+  <si>
+    <t>ADA_HON_N_002</t>
+  </si>
+  <si>
+    <t>ADA_HON_N_003</t>
+  </si>
+  <si>
+    <t>ADA_MIC_M_004</t>
+  </si>
+  <si>
+    <t>ADA_MUN_N_005</t>
+  </si>
+  <si>
+    <t>ADA_MUS_M_006</t>
+  </si>
+  <si>
+    <t>ADA_MAD_N_007</t>
+  </si>
+  <si>
+    <t>ADA_MAD_M_008</t>
+  </si>
+  <si>
+    <t>ADA_MAD_M_009</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_010</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_011</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_012</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_013</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_014</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_015</t>
+  </si>
+  <si>
+    <t>ADA_DEM_N_016</t>
+  </si>
+  <si>
+    <t>ADA_JAD_N_017</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_018</t>
+  </si>
+  <si>
+    <t>ADA_DEM_N_019</t>
+  </si>
+  <si>
+    <t>ADA_SHE_N_020</t>
+  </si>
+  <si>
+    <t>ADA_LAM_N_021</t>
+  </si>
+  <si>
+    <t>ADA_MAI_N_022</t>
+  </si>
+  <si>
+    <t>ADA_SON_N_023</t>
+  </si>
+  <si>
+    <t>ADA_SON_N_024</t>
+  </si>
+  <si>
+    <t>ADA_FUR_N_025</t>
+  </si>
+  <si>
+    <t>ADA_FUR_N_026</t>
+  </si>
+  <si>
+    <t>ADA_YON_N_027</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_028</t>
+  </si>
+  <si>
+    <t>ADA_NUM_M_029</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_030</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_031</t>
+  </si>
+  <si>
+    <t>ADA_FUR_M_032</t>
+  </si>
+  <si>
+    <t>ADA_MAI_M_033</t>
+  </si>
+  <si>
+    <t>ADA_MAI_M_034</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1155,10 +1137,10 @@
     </row>
     <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>49</v>
@@ -1178,10 +1160,10 @@
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>34</v>
@@ -1197,16 +1179,16 @@
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>35</v>
@@ -1222,7 +1204,7 @@
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="M5" s="8"/>
     </row>
@@ -1291,7 +1273,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="10"/>
       <c r="H8" s="8" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
@@ -1353,7 +1335,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="19"/>
@@ -1413,11 +1395,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1438,13 +1420,13 @@
         <v>18</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1482,1245 +1464,1192 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
         <v>71</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
         <v>72</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E55" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" t="s">
-        <v>66</v>
+        <v>117</v>
+      </c>
+      <c r="F60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F77" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F82" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F88" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F89" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F90" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F93" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F94" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F95" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F96" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F97" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2733,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2758,10 +2687,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
